--- a/data/pca/factorExposure/factorExposure_2017-03-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0145764635388884</v>
+        <v>0.01072774003405767</v>
       </c>
       <c r="C2">
-        <v>0.01876158615385026</v>
+        <v>-0.04027607535755872</v>
       </c>
       <c r="D2">
-        <v>-0.02990450770598341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02947053875482342</v>
+      </c>
+      <c r="E2">
+        <v>-0.03796286083077281</v>
+      </c>
+      <c r="F2">
+        <v>-0.002408179586301405</v>
+      </c>
+      <c r="G2">
+        <v>0.1034497217207201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01957002987225053</v>
+        <v>0.04050843105846129</v>
       </c>
       <c r="C3">
-        <v>-0.00153252259307755</v>
+        <v>-0.1013689614362598</v>
       </c>
       <c r="D3">
-        <v>-0.09503290569702756</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01816523957642474</v>
+      </c>
+      <c r="E3">
+        <v>-0.1035950471143307</v>
+      </c>
+      <c r="F3">
+        <v>-0.0008370931630350554</v>
+      </c>
+      <c r="G3">
+        <v>0.1609048594773545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02772732370245878</v>
+        <v>0.055806235883558</v>
       </c>
       <c r="C4">
-        <v>0.007682646954980261</v>
+        <v>-0.06873529507605612</v>
       </c>
       <c r="D4">
-        <v>-0.08051715322423597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02467029279230912</v>
+      </c>
+      <c r="E4">
+        <v>-0.03476838833513921</v>
+      </c>
+      <c r="F4">
+        <v>-0.009188773979448754</v>
+      </c>
+      <c r="G4">
+        <v>0.09986348823134104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01241165714605538</v>
+        <v>0.03609362896133556</v>
       </c>
       <c r="C6">
-        <v>0.009879359290276495</v>
+        <v>-0.0504411704813395</v>
       </c>
       <c r="D6">
-        <v>-0.07468495104563283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01727605538185574</v>
+      </c>
+      <c r="E6">
+        <v>-0.0404838825588066</v>
+      </c>
+      <c r="F6">
+        <v>-0.00513731375347222</v>
+      </c>
+      <c r="G6">
+        <v>0.08739913602183869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.004311834598718207</v>
+        <v>0.02060488153793561</v>
       </c>
       <c r="C7">
-        <v>0.01104409423254789</v>
+        <v>-0.03934301401166639</v>
       </c>
       <c r="D7">
-        <v>-0.03657646390366021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01402294471486312</v>
+      </c>
+      <c r="E7">
+        <v>-0.008934461782524068</v>
+      </c>
+      <c r="F7">
+        <v>0.004526924329438788</v>
+      </c>
+      <c r="G7">
+        <v>0.1226385724140306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003866709476681375</v>
+        <v>0.002478763371501366</v>
       </c>
       <c r="C8">
-        <v>0.003711879035551549</v>
+        <v>-0.0241021241657751</v>
       </c>
       <c r="D8">
-        <v>0.00372553955556186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003916118388599932</v>
+      </c>
+      <c r="E8">
+        <v>-0.0315890020261648</v>
+      </c>
+      <c r="F8">
+        <v>-0.004397045527700053</v>
+      </c>
+      <c r="G8">
+        <v>0.07060675311277975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01344901824417775</v>
+        <v>0.03417681281818216</v>
       </c>
       <c r="C9">
-        <v>0.00791064354450983</v>
+        <v>-0.05008844184362336</v>
       </c>
       <c r="D9">
-        <v>-0.05855723517739594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01644367880665161</v>
+      </c>
+      <c r="E9">
+        <v>-0.02417960480842441</v>
+      </c>
+      <c r="F9">
+        <v>-0.006569096979769664</v>
+      </c>
+      <c r="G9">
+        <v>0.1001056575159108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1388020103200476</v>
+        <v>0.09860493191783093</v>
       </c>
       <c r="C10">
-        <v>-0.111103186229337</v>
+        <v>0.1839574187885291</v>
       </c>
       <c r="D10">
-        <v>0.1065155164374303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01543175647915577</v>
+      </c>
+      <c r="E10">
+        <v>-0.02159727465214367</v>
+      </c>
+      <c r="F10">
+        <v>0.02099412374218897</v>
+      </c>
+      <c r="G10">
+        <v>0.05775270398855675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.001521418358662217</v>
+        <v>0.03438136838802254</v>
       </c>
       <c r="C11">
-        <v>0.0003523979860151296</v>
+        <v>-0.05316112975750427</v>
       </c>
       <c r="D11">
-        <v>-0.05247510527743692</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002565035068241282</v>
+      </c>
+      <c r="E11">
+        <v>-0.01887037249305525</v>
+      </c>
+      <c r="F11">
+        <v>-0.01839496946139798</v>
+      </c>
+      <c r="G11">
+        <v>0.0903370798079846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.003964143868284494</v>
+        <v>0.03584808072548661</v>
       </c>
       <c r="C12">
-        <v>0.004509000941368797</v>
+        <v>-0.04779054553556744</v>
       </c>
       <c r="D12">
-        <v>-0.04507028183639216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006700605808889554</v>
+      </c>
+      <c r="E12">
+        <v>-0.01054181743454613</v>
+      </c>
+      <c r="F12">
+        <v>-0.001309811162514543</v>
+      </c>
+      <c r="G12">
+        <v>0.08192055873918277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01816808480027807</v>
+        <v>0.01528800006185027</v>
       </c>
       <c r="C13">
-        <v>0.01292440503949042</v>
+        <v>-0.04196191454668437</v>
       </c>
       <c r="D13">
-        <v>-0.03703202594888351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02663757795686711</v>
+      </c>
+      <c r="E13">
+        <v>-0.03963079993031036</v>
+      </c>
+      <c r="F13">
+        <v>-0.0009092569284802961</v>
+      </c>
+      <c r="G13">
+        <v>0.1408625787006621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.003731285032623807</v>
+        <v>0.00793173786713056</v>
       </c>
       <c r="C14">
-        <v>0.005892400737820576</v>
+        <v>-0.02809548045354321</v>
       </c>
       <c r="D14">
-        <v>-0.01936327872621811</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01025306088409628</v>
+      </c>
+      <c r="E14">
+        <v>-0.009493714555288673</v>
+      </c>
+      <c r="F14">
+        <v>0.007703997980834894</v>
+      </c>
+      <c r="G14">
+        <v>0.1069132524368899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.005023536881576329</v>
+        <v>0.03298451954048737</v>
       </c>
       <c r="C16">
-        <v>-0.002623777248360785</v>
+        <v>-0.04617284063424634</v>
       </c>
       <c r="D16">
-        <v>-0.04175991841604937</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002033167084836296</v>
+      </c>
+      <c r="E16">
+        <v>-0.01631384512098207</v>
+      </c>
+      <c r="F16">
+        <v>-0.0001112520526918033</v>
+      </c>
+      <c r="G16">
+        <v>0.0921011080237554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01050033488309884</v>
+        <v>0.02235069260837139</v>
       </c>
       <c r="C19">
-        <v>0.008492081046082196</v>
+        <v>-0.05123436699093722</v>
       </c>
       <c r="D19">
-        <v>-0.03939514173315524</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01953537265964244</v>
+      </c>
+      <c r="E19">
+        <v>-0.0835816769398823</v>
+      </c>
+      <c r="F19">
+        <v>-0.01645402709927294</v>
+      </c>
+      <c r="G19">
+        <v>0.1389395666749362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.004828090625502914</v>
+        <v>0.01541899839427002</v>
       </c>
       <c r="C20">
-        <v>0.009724179528698194</v>
+        <v>-0.04153545711533425</v>
       </c>
       <c r="D20">
-        <v>-0.03297458857063364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01433180228682213</v>
+      </c>
+      <c r="E20">
+        <v>-0.03991496243209421</v>
+      </c>
+      <c r="F20">
+        <v>0.01459788450979399</v>
+      </c>
+      <c r="G20">
+        <v>0.1109544598139113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01277678405002998</v>
+        <v>0.01164061844529829</v>
       </c>
       <c r="C21">
-        <v>0.006528912908223131</v>
+        <v>-0.03828852829061438</v>
       </c>
       <c r="D21">
-        <v>-0.01968869855141958</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0194212610261548</v>
+      </c>
+      <c r="E21">
+        <v>-0.05294293418381737</v>
+      </c>
+      <c r="F21">
+        <v>0.003020614241487215</v>
+      </c>
+      <c r="G21">
+        <v>0.1386513602859244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001813378132348726</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-2.717910411375633e-05</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0007362357476670545</v>
+      </c>
+      <c r="E22">
+        <v>-0.005532315321115487</v>
+      </c>
+      <c r="F22">
+        <v>-0.00245992242963078</v>
+      </c>
+      <c r="G22">
+        <v>0.007318855529117759</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001818880329566332</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-3.888795880600017e-05</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0007350249825207138</v>
+      </c>
+      <c r="E23">
+        <v>-0.005518695632528852</v>
+      </c>
+      <c r="F23">
+        <v>-0.002465968167230569</v>
+      </c>
+      <c r="G23">
+        <v>0.007211815393033902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.001226542887329615</v>
+        <v>0.0281403264656455</v>
       </c>
       <c r="C24">
-        <v>0.007706808084911811</v>
+        <v>-0.05089302420018173</v>
       </c>
       <c r="D24">
-        <v>-0.04542903656025121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007348797712892101</v>
+      </c>
+      <c r="E24">
+        <v>-0.01382558352444049</v>
+      </c>
+      <c r="F24">
+        <v>-0.01080275039825009</v>
+      </c>
+      <c r="G24">
+        <v>0.09095563850600936</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01549382570017461</v>
+        <v>0.04223279890106576</v>
       </c>
       <c r="C25">
-        <v>0.001942823101169499</v>
+        <v>-0.05790434378691176</v>
       </c>
       <c r="D25">
-        <v>-0.05897910421808297</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01139554019091467</v>
+      </c>
+      <c r="E25">
+        <v>-0.005717699350805197</v>
+      </c>
+      <c r="F25">
+        <v>-0.003860497222831695</v>
+      </c>
+      <c r="G25">
+        <v>0.09900689468763424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.0128734250113569</v>
+        <v>0.01353366425543147</v>
       </c>
       <c r="C26">
-        <v>0.01764012893709647</v>
+        <v>-0.01269619480212695</v>
       </c>
       <c r="D26">
-        <v>-0.001116690364779012</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02429324220415967</v>
+      </c>
+      <c r="E26">
+        <v>-0.01055341842513197</v>
+      </c>
+      <c r="F26">
+        <v>0.007383310580530354</v>
+      </c>
+      <c r="G26">
+        <v>0.08320879887366235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1901215500880833</v>
+        <v>0.1261983087173451</v>
       </c>
       <c r="C28">
-        <v>-0.1340697332384373</v>
+        <v>0.2410103988229877</v>
       </c>
       <c r="D28">
-        <v>0.1380913039204177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006573977337026793</v>
+      </c>
+      <c r="E28">
+        <v>-0.01003347273275705</v>
+      </c>
+      <c r="F28">
+        <v>0.01610595307735531</v>
+      </c>
+      <c r="G28">
+        <v>0.04848897272813216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.00916146357919796</v>
+        <v>0.008497017626532551</v>
       </c>
       <c r="C29">
-        <v>0.001415858745267449</v>
+        <v>-0.02231214073661867</v>
       </c>
       <c r="D29">
-        <v>-0.01706124939818279</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009391377587032693</v>
+      </c>
+      <c r="E29">
+        <v>-0.006658080858933225</v>
+      </c>
+      <c r="F29">
+        <v>0.01385107092528873</v>
+      </c>
+      <c r="G29">
+        <v>0.09868470887183274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01138536664826689</v>
+        <v>0.04151917259113104</v>
       </c>
       <c r="C30">
-        <v>0.02236485678670673</v>
+        <v>-0.06843724922729458</v>
       </c>
       <c r="D30">
-        <v>-0.09770740815338272</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0290960293312843</v>
+      </c>
+      <c r="E30">
+        <v>-0.06272091267743113</v>
+      </c>
+      <c r="F30">
+        <v>-0.0421899329761622</v>
+      </c>
+      <c r="G30">
+        <v>0.134661678466852</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02539536697679214</v>
+        <v>0.05323479361453323</v>
       </c>
       <c r="C31">
-        <v>-0.01271917501983912</v>
+        <v>-0.03795556372959404</v>
       </c>
       <c r="D31">
-        <v>-0.02950844154874471</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003778618808848925</v>
+      </c>
+      <c r="E31">
+        <v>0.0001983408995371572</v>
+      </c>
+      <c r="F31">
+        <v>0.04063293785748669</v>
+      </c>
+      <c r="G31">
+        <v>0.09800446814911649</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0005685748810630359</v>
+        <v>0.00192560450952572</v>
       </c>
       <c r="C32">
-        <v>-0.009988850127774392</v>
+        <v>-0.02317358194336453</v>
       </c>
       <c r="D32">
-        <v>-0.001014375316007388</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.00273897232028057</v>
+      </c>
+      <c r="E32">
+        <v>-0.03798781504903247</v>
+      </c>
+      <c r="F32">
+        <v>-0.04109612607577508</v>
+      </c>
+      <c r="G32">
+        <v>0.08681069516483286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.006999436962515681</v>
+        <v>0.02791438943620269</v>
       </c>
       <c r="C33">
-        <v>0.008965097282998507</v>
+        <v>-0.0503764730869818</v>
       </c>
       <c r="D33">
-        <v>-0.03928381904423348</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01589319215053029</v>
+      </c>
+      <c r="E33">
+        <v>-0.04606108447497359</v>
+      </c>
+      <c r="F33">
+        <v>-0.01414945852243749</v>
+      </c>
+      <c r="G33">
+        <v>0.1616460618973263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.008430507322704223</v>
+        <v>0.03970582112602825</v>
       </c>
       <c r="C34">
-        <v>-0.01300205851816601</v>
+        <v>-0.05936818520371792</v>
       </c>
       <c r="D34">
-        <v>-0.05678578002674714</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004416712402007597</v>
+      </c>
+      <c r="E34">
+        <v>-0.009413852424814243</v>
+      </c>
+      <c r="F34">
+        <v>-0.02008415482649994</v>
+      </c>
+      <c r="G34">
+        <v>0.09392735479134884</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01504519842574681</v>
+        <v>0.01599499049487246</v>
       </c>
       <c r="C36">
-        <v>0.00184049469902058</v>
+        <v>-0.00955250782953254</v>
       </c>
       <c r="D36">
-        <v>-0.005179332127946638</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01265201531632396</v>
+      </c>
+      <c r="E36">
+        <v>-0.01020019098725635</v>
+      </c>
+      <c r="F36">
+        <v>0.008252388595559093</v>
+      </c>
+      <c r="G36">
+        <v>0.09233253019880773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.01458546981086956</v>
+        <v>0.03083342287005821</v>
       </c>
       <c r="C38">
-        <v>-0.01980754214756333</v>
+        <v>-0.03012019569688526</v>
       </c>
       <c r="D38">
-        <v>-0.03741961695212961</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007260864380119422</v>
+      </c>
+      <c r="E38">
+        <v>-0.008990363681098687</v>
+      </c>
+      <c r="F38">
+        <v>0.01709246595059607</v>
+      </c>
+      <c r="G38">
+        <v>0.08787682666163887</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01008478612659492</v>
+        <v>0.03663864003788163</v>
       </c>
       <c r="C39">
-        <v>0.01914698479038246</v>
+        <v>-0.07980238370196416</v>
       </c>
       <c r="D39">
-        <v>-0.09989808318448677</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01182294585837102</v>
+      </c>
+      <c r="E39">
+        <v>-0.03057936303663392</v>
+      </c>
+      <c r="F39">
+        <v>-0.02089326449672111</v>
+      </c>
+      <c r="G39">
+        <v>0.08987515847119304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01514987608808986</v>
+        <v>0.01327599605851669</v>
       </c>
       <c r="C40">
-        <v>0.001911336095950416</v>
+        <v>-0.03921062227018507</v>
       </c>
       <c r="D40">
-        <v>-0.03290007983934775</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01485289655921926</v>
+      </c>
+      <c r="E40">
+        <v>-0.03303359466617319</v>
+      </c>
+      <c r="F40">
+        <v>0.009738172157266807</v>
+      </c>
+      <c r="G40">
+        <v>0.123951755986611</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01493955976231617</v>
+        <v>0.02051748092699713</v>
       </c>
       <c r="C41">
-        <v>-0.007424111142758922</v>
+        <v>-0.002700921678943733</v>
       </c>
       <c r="D41">
-        <v>0.008772795461647829</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.00452609991587583</v>
+      </c>
+      <c r="E41">
+        <v>-0.008259988978605649</v>
+      </c>
+      <c r="F41">
+        <v>0.01528186576946411</v>
+      </c>
+      <c r="G41">
+        <v>0.08534250519329725</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.04436866812805425</v>
+        <v>0.009724692424872722</v>
       </c>
       <c r="C42">
-        <v>0.08385818760133584</v>
+        <v>-0.03179123676539284</v>
       </c>
       <c r="D42">
-        <v>-0.1262022938914256</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08906190124667572</v>
+      </c>
+      <c r="E42">
+        <v>-0.01670709832197322</v>
+      </c>
+      <c r="F42">
+        <v>0.0401224259602879</v>
+      </c>
+      <c r="G42">
+        <v>-0.02153617428092915</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01557376642084212</v>
+        <v>0.03492937123815176</v>
       </c>
       <c r="C43">
-        <v>-0.006875909680502289</v>
+        <v>-0.01831946699898436</v>
       </c>
       <c r="D43">
-        <v>0.01025170871226061</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.005995227533598576</v>
+      </c>
+      <c r="E43">
+        <v>-0.02169013716958535</v>
+      </c>
+      <c r="F43">
+        <v>0.007459926682204569</v>
+      </c>
+      <c r="G43">
+        <v>0.1191674895547341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0006965974567967118</v>
+        <v>0.01352190094592326</v>
       </c>
       <c r="C44">
-        <v>0.004137182998461105</v>
+        <v>-0.05935392084858116</v>
       </c>
       <c r="D44">
-        <v>-0.04923575168073013</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007075818236273254</v>
+      </c>
+      <c r="E44">
+        <v>-0.02640704614069572</v>
+      </c>
+      <c r="F44">
+        <v>0.005456464023103458</v>
+      </c>
+      <c r="G44">
+        <v>0.1104958287413915</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0081743430451309</v>
+        <v>0.008333156447451662</v>
       </c>
       <c r="C46">
-        <v>0.005706625110459247</v>
+        <v>-0.01428455320652418</v>
       </c>
       <c r="D46">
-        <v>0.005330270775567815</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01264428188565867</v>
+      </c>
+      <c r="E46">
+        <v>-0.002659420170457915</v>
+      </c>
+      <c r="F46">
+        <v>0.01616760272295423</v>
+      </c>
+      <c r="G46">
+        <v>0.1064183536984235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02245640433115044</v>
+        <v>0.0776639879763704</v>
       </c>
       <c r="C47">
-        <v>-0.01841641748939982</v>
+        <v>-0.06901836573814076</v>
       </c>
       <c r="D47">
-        <v>-0.0736402899677427</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004854046554600227</v>
+      </c>
+      <c r="E47">
+        <v>0.005597366140867707</v>
+      </c>
+      <c r="F47">
+        <v>0.05375057349505018</v>
+      </c>
+      <c r="G47">
+        <v>0.08355790394010842</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.008435676194574512</v>
+        <v>0.01847510526913388</v>
       </c>
       <c r="C48">
-        <v>-0.005005152228521404</v>
+        <v>-0.01296132510834004</v>
       </c>
       <c r="D48">
-        <v>-0.01569391114901459</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002382050520633203</v>
+      </c>
+      <c r="E48">
+        <v>-0.006944998593301954</v>
+      </c>
+      <c r="F48">
+        <v>0.01930643090996991</v>
+      </c>
+      <c r="G48">
+        <v>0.09827583111981483</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03235647095510721</v>
+        <v>0.07521846422269382</v>
       </c>
       <c r="C50">
-        <v>-0.02383384568205644</v>
+        <v>-0.07182080157380998</v>
       </c>
       <c r="D50">
-        <v>-0.06907654565267236</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002194611342590157</v>
+      </c>
+      <c r="E50">
+        <v>0.003028265855532009</v>
+      </c>
+      <c r="F50">
+        <v>0.05472385780137723</v>
+      </c>
+      <c r="G50">
+        <v>0.09305482375882176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007417621259183025</v>
+        <v>0.01455550607398259</v>
       </c>
       <c r="C51">
-        <v>0.001098810155415157</v>
+        <v>-0.03708793183018429</v>
       </c>
       <c r="D51">
-        <v>-0.0249128496927443</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01037462256027771</v>
+      </c>
+      <c r="E51">
+        <v>-0.02913197964888326</v>
+      </c>
+      <c r="F51">
+        <v>-0.01919394254965521</v>
+      </c>
+      <c r="G51">
+        <v>0.1245381501783242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.03596494146085518</v>
+        <v>0.08161079800346493</v>
       </c>
       <c r="C53">
-        <v>-0.02580767446589687</v>
+        <v>-0.08503674780532802</v>
       </c>
       <c r="D53">
-        <v>-0.126031992040642</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003445291608765744</v>
+      </c>
+      <c r="E53">
+        <v>0.02537607932613461</v>
+      </c>
+      <c r="F53">
+        <v>0.06321507874648685</v>
+      </c>
+      <c r="G53">
+        <v>0.09320023218941544</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0161429525614068</v>
+        <v>0.03136885301175744</v>
       </c>
       <c r="C54">
-        <v>-0.01585083764119985</v>
+        <v>-0.01886757673551663</v>
       </c>
       <c r="D54">
-        <v>0.002202484060729201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.001153340386269077</v>
+      </c>
+      <c r="E54">
+        <v>-0.01994846284866705</v>
+      </c>
+      <c r="F54">
+        <v>0.006455479141340234</v>
+      </c>
+      <c r="G54">
+        <v>0.10715767132189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.01867079252580493</v>
+        <v>0.07166802244617447</v>
       </c>
       <c r="C55">
-        <v>-0.01421022925175065</v>
+        <v>-0.06816513857479287</v>
       </c>
       <c r="D55">
-        <v>-0.09939477886595247</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005042341704544004</v>
+      </c>
+      <c r="E55">
+        <v>0.02341835023244623</v>
+      </c>
+      <c r="F55">
+        <v>0.0634880488262112</v>
+      </c>
+      <c r="G55">
+        <v>0.06941407422608854</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.04204225874206187</v>
+        <v>0.1357391739508516</v>
       </c>
       <c r="C56">
-        <v>-0.03474770011049438</v>
+        <v>-0.1078834450203286</v>
       </c>
       <c r="D56">
-        <v>-0.1589659332475296</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01248616714070952</v>
+      </c>
+      <c r="E56">
+        <v>0.03395766349423695</v>
+      </c>
+      <c r="F56">
+        <v>0.08011357844830223</v>
+      </c>
+      <c r="G56">
+        <v>0.04461058395257634</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02014784584746761</v>
+        <v>0.006032181789185348</v>
       </c>
       <c r="C57">
-        <v>0.01307543567956221</v>
+        <v>-0.006618566971276183</v>
       </c>
       <c r="D57">
-        <v>-0.03126349093585477</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02281318237048894</v>
+      </c>
+      <c r="E57">
+        <v>-0.02526205215961039</v>
+      </c>
+      <c r="F57">
+        <v>-0.006207227202643028</v>
+      </c>
+      <c r="G57">
+        <v>0.0235296407942247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01794939780040698</v>
+        <v>0.05177996973557825</v>
       </c>
       <c r="C58">
-        <v>-0.009794783158816569</v>
+        <v>-0.0416730223464988</v>
       </c>
       <c r="D58">
-        <v>-0.1133900459914507</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02111182724997436</v>
+      </c>
+      <c r="E58">
+        <v>-0.9023610211567386</v>
+      </c>
+      <c r="F58">
+        <v>0.2947708316932361</v>
+      </c>
+      <c r="G58">
+        <v>-0.2395484336056818</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2119717828541775</v>
+        <v>0.1604394331182437</v>
       </c>
       <c r="C59">
-        <v>-0.1555648034253648</v>
+        <v>0.2056050042145782</v>
       </c>
       <c r="D59">
-        <v>0.1095359097135514</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01167328853760281</v>
+      </c>
+      <c r="E59">
+        <v>-0.01996454396772688</v>
+      </c>
+      <c r="F59">
+        <v>0.002383572217690518</v>
+      </c>
+      <c r="G59">
+        <v>0.04264144821715617</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1841908276120837</v>
+        <v>0.288335564154605</v>
       </c>
       <c r="C60">
-        <v>-0.1106768747037854</v>
+        <v>-0.1098875139804361</v>
       </c>
       <c r="D60">
-        <v>-0.1624748099900519</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01181585976200783</v>
+      </c>
+      <c r="E60">
+        <v>-0.009484491767671729</v>
+      </c>
+      <c r="F60">
+        <v>-0.3389246301420492</v>
+      </c>
+      <c r="G60">
+        <v>-0.1616307920953709</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002413753869295245</v>
+        <v>0.03884593930342711</v>
       </c>
       <c r="C61">
-        <v>0.00269784489529702</v>
+        <v>-0.06545388111135091</v>
       </c>
       <c r="D61">
-        <v>-0.07518472835249752</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.005610455717262254</v>
+      </c>
+      <c r="E61">
+        <v>-0.025074229557291</v>
+      </c>
+      <c r="F61">
+        <v>-0.01261601869981133</v>
+      </c>
+      <c r="G61">
+        <v>0.09678029004887294</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.005481373326645645</v>
+        <v>0.01497758372045352</v>
       </c>
       <c r="C63">
-        <v>0.005141445371317574</v>
+        <v>-0.03021004208115219</v>
       </c>
       <c r="D63">
-        <v>-0.02559980862319214</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.00869149854577517</v>
+      </c>
+      <c r="E63">
+        <v>-0.006620505707498219</v>
+      </c>
+      <c r="F63">
+        <v>0.01481014735641146</v>
+      </c>
+      <c r="G63">
+        <v>0.09460504998007445</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02574044227072496</v>
+        <v>0.04918426062805618</v>
       </c>
       <c r="C64">
-        <v>-0.01200575899019778</v>
+        <v>-0.04802172924759158</v>
       </c>
       <c r="D64">
-        <v>-0.05887724544027485</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006509953199077936</v>
+      </c>
+      <c r="E64">
+        <v>-0.009159934833209952</v>
+      </c>
+      <c r="F64">
+        <v>-0.007357728802446522</v>
+      </c>
+      <c r="G64">
+        <v>0.09920178069145491</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.02788855660756032</v>
+        <v>0.07501757300863199</v>
       </c>
       <c r="C65">
-        <v>0.001646681885070396</v>
+        <v>-0.05790318684977137</v>
       </c>
       <c r="D65">
-        <v>-0.1131583658216961</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01681009322156363</v>
+      </c>
+      <c r="E65">
+        <v>-0.0423878077592429</v>
+      </c>
+      <c r="F65">
+        <v>-0.02591221260592088</v>
+      </c>
+      <c r="G65">
+        <v>0.0450933474903968</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.007851499008355798</v>
+        <v>0.05084659511597464</v>
       </c>
       <c r="C66">
-        <v>0.0173312284077803</v>
+        <v>-0.1065925594641594</v>
       </c>
       <c r="D66">
-        <v>-0.140162795286689</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01183273088007088</v>
+      </c>
+      <c r="E66">
+        <v>-0.04304567677794804</v>
+      </c>
+      <c r="F66">
+        <v>-0.03216007970964178</v>
+      </c>
+      <c r="G66">
+        <v>0.1048631600237318</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.03463208489127811</v>
+        <v>0.05381336430844087</v>
       </c>
       <c r="C67">
-        <v>-0.03024765815691923</v>
+        <v>-0.03375071606071635</v>
       </c>
       <c r="D67">
-        <v>-0.05769079257170136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005820016750605839</v>
+      </c>
+      <c r="E67">
+        <v>0.000972270422363975</v>
+      </c>
+      <c r="F67">
+        <v>0.01649983342694583</v>
+      </c>
+      <c r="G67">
+        <v>0.07548896037935021</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.2186405635605148</v>
+        <v>0.1558035623154141</v>
       </c>
       <c r="C68">
-        <v>-0.1371813336731793</v>
+        <v>0.2695351633515579</v>
       </c>
       <c r="D68">
-        <v>0.1711367904138406</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005483670602000298</v>
+      </c>
+      <c r="E68">
+        <v>-0.01137570928086805</v>
+      </c>
+      <c r="F68">
+        <v>0.03692268612568917</v>
+      </c>
+      <c r="G68">
+        <v>0.03029098537858128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.02949105443809211</v>
+        <v>0.08236683920908015</v>
       </c>
       <c r="C69">
-        <v>-0.02829283428613446</v>
+        <v>-0.07044069813196573</v>
       </c>
       <c r="D69">
-        <v>-0.07719240277874038</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008808616888751425</v>
+      </c>
+      <c r="E69">
+        <v>0.01967455259740135</v>
+      </c>
+      <c r="F69">
+        <v>0.03713769831664455</v>
+      </c>
+      <c r="G69">
+        <v>0.1019804578420164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1777501626313431</v>
+        <v>0.1416223120080951</v>
       </c>
       <c r="C71">
-        <v>-0.1194854142180546</v>
+        <v>0.2303809441290579</v>
       </c>
       <c r="D71">
-        <v>0.1207335171464621</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003078657237908932</v>
+      </c>
+      <c r="E71">
+        <v>-0.03159696672355616</v>
+      </c>
+      <c r="F71">
+        <v>0.02726831244977916</v>
+      </c>
+      <c r="G71">
+        <v>0.07059087277944741</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.01181495947071812</v>
+        <v>0.08488490096713082</v>
       </c>
       <c r="C72">
-        <v>-0.01516672237770081</v>
+        <v>-0.06898769608252085</v>
       </c>
       <c r="D72">
-        <v>-0.1075895482647656</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008214528823689794</v>
+      </c>
+      <c r="E72">
+        <v>0.008254512236759687</v>
+      </c>
+      <c r="F72">
+        <v>-0.03419081601744295</v>
+      </c>
+      <c r="G72">
+        <v>0.08791336965852602</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2252204180896276</v>
+        <v>0.3771557506102739</v>
       </c>
       <c r="C73">
-        <v>-0.1283734220235704</v>
+        <v>-0.1183342672814607</v>
       </c>
       <c r="D73">
-        <v>-0.2952226373098479</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02100302590306401</v>
+      </c>
+      <c r="E73">
+        <v>-0.09164725852338508</v>
+      </c>
+      <c r="F73">
+        <v>-0.5802326210486527</v>
+      </c>
+      <c r="G73">
+        <v>-0.2909420099864743</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.0423067396585961</v>
+        <v>0.1041988988605415</v>
       </c>
       <c r="C74">
-        <v>-0.03668558397201137</v>
+        <v>-0.1094105895073144</v>
       </c>
       <c r="D74">
-        <v>-0.1682382396288058</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009309166715848447</v>
+      </c>
+      <c r="E74">
+        <v>0.007758023378879557</v>
+      </c>
+      <c r="F74">
+        <v>0.0680097878455895</v>
+      </c>
+      <c r="G74">
+        <v>0.08302011405547804</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1078854787526651</v>
+        <v>0.2472945571796801</v>
       </c>
       <c r="C75">
-        <v>-0.08900947405504007</v>
+        <v>-0.1533449249178057</v>
       </c>
       <c r="D75">
-        <v>-0.3047747003139895</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03088575278348446</v>
+      </c>
+      <c r="E75">
+        <v>0.0718983217731006</v>
+      </c>
+      <c r="F75">
+        <v>0.1640913270515099</v>
+      </c>
+      <c r="G75">
+        <v>-0.01736414274941613</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.05070784429767691</v>
+        <v>0.1174973298863533</v>
       </c>
       <c r="C76">
-        <v>-0.04900496304050824</v>
+        <v>-0.1088304675043312</v>
       </c>
       <c r="D76">
-        <v>-0.200615427281534</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01746194220559211</v>
+      </c>
+      <c r="E76">
+        <v>0.02676888893007071</v>
+      </c>
+      <c r="F76">
+        <v>0.09833172555479505</v>
+      </c>
+      <c r="G76">
+        <v>0.05858670672145179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.0152823960368815</v>
+        <v>0.07080806199040457</v>
       </c>
       <c r="C77">
-        <v>0.001319744136661993</v>
+        <v>-0.06131336265810023</v>
       </c>
       <c r="D77">
-        <v>-0.07826452028818247</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01029307509535291</v>
+      </c>
+      <c r="E77">
+        <v>-0.05193628182092663</v>
+      </c>
+      <c r="F77">
+        <v>-0.01385257061469174</v>
+      </c>
+      <c r="G77">
+        <v>0.06369860753119697</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.007782190052047329</v>
+        <v>0.04271521945825091</v>
       </c>
       <c r="C78">
-        <v>-0.0007652506701632118</v>
+        <v>-0.04899322119815449</v>
       </c>
       <c r="D78">
-        <v>-0.06518473165306723</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.005826192875667781</v>
+      </c>
+      <c r="E78">
+        <v>-0.0316076713488278</v>
+      </c>
+      <c r="F78">
+        <v>-0.0346544586575912</v>
+      </c>
+      <c r="G78">
+        <v>0.1034990544185223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0002009605512073387</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0001552328807533743</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>6.975992333219576e-05</v>
+      </c>
+      <c r="E79">
+        <v>-0.001808326786743135</v>
+      </c>
+      <c r="F79">
+        <v>-0.001439903062988259</v>
+      </c>
+      <c r="G79">
+        <v>4.530332634703908e-05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03297713954091082</v>
+        <v>0.04278253880101797</v>
       </c>
       <c r="C80">
-        <v>-0.00905303898393298</v>
+        <v>-0.05166350244841193</v>
       </c>
       <c r="D80">
-        <v>-0.07354412118501988</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.013253424050292</v>
+      </c>
+      <c r="E80">
+        <v>-0.02718542259277367</v>
+      </c>
+      <c r="F80">
+        <v>-0.01052214156552897</v>
+      </c>
+      <c r="G80">
+        <v>0.05191530363741428</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.06225443636462243</v>
+        <v>0.1366537421819493</v>
       </c>
       <c r="C81">
-        <v>-0.05032901273409286</v>
+        <v>-0.09673675061710023</v>
       </c>
       <c r="D81">
-        <v>-0.1652640648153298</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01465696827886125</v>
+      </c>
+      <c r="E81">
+        <v>0.03642132957005619</v>
+      </c>
+      <c r="F81">
+        <v>0.125588940623559</v>
+      </c>
+      <c r="G81">
+        <v>0.02055762657143535</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1360487648053302</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.08197133815613294</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01021349378646511</v>
+      </c>
+      <c r="E82">
+        <v>0.1052590423871277</v>
+      </c>
+      <c r="F82">
+        <v>0.05471924087254808</v>
+      </c>
+      <c r="G82">
+        <v>0.05565022269823919</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01328811384755649</v>
+        <v>0.03619315264246204</v>
       </c>
       <c r="C83">
-        <v>-0.004433415610867695</v>
+        <v>-0.02849549782698859</v>
       </c>
       <c r="D83">
-        <v>-0.02369905864877924</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006065049672373132</v>
+      </c>
+      <c r="E83">
+        <v>-0.03208331244706181</v>
+      </c>
+      <c r="F83">
+        <v>-0.02835279029436502</v>
+      </c>
+      <c r="G83">
+        <v>0.06258269271800013</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.09136864555282578</v>
+        <v>0.2102697950012452</v>
       </c>
       <c r="C85">
-        <v>-0.06239841848704496</v>
+        <v>-0.1485807751644117</v>
       </c>
       <c r="D85">
-        <v>-0.2678514723175722</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01670483143824229</v>
+      </c>
+      <c r="E85">
+        <v>0.1056534641548939</v>
+      </c>
+      <c r="F85">
+        <v>0.1129741821349831</v>
+      </c>
+      <c r="G85">
+        <v>-0.05816689337526255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01510602583871868</v>
+        <v>0.01379762920925449</v>
       </c>
       <c r="C86">
-        <v>-0.004705848397729383</v>
+        <v>-0.02468021405093581</v>
       </c>
       <c r="D86">
-        <v>-0.0372785794155567</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01153867101914019</v>
+      </c>
+      <c r="E86">
+        <v>-0.05365963200361132</v>
+      </c>
+      <c r="F86">
+        <v>-0.01634296128382944</v>
+      </c>
+      <c r="G86">
+        <v>0.1928298156837543</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.004254354240238177</v>
+        <v>0.02163137517892496</v>
       </c>
       <c r="C87">
-        <v>0.01362095146005668</v>
+        <v>-0.02013369253933646</v>
       </c>
       <c r="D87">
-        <v>-0.03199102890520571</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01201944225001305</v>
+      </c>
+      <c r="E87">
+        <v>-0.09756550957560836</v>
+      </c>
+      <c r="F87">
+        <v>-0.004897453428537361</v>
+      </c>
+      <c r="G87">
+        <v>0.1215225216133892</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.04935433392837807</v>
+        <v>0.09378543261277091</v>
       </c>
       <c r="C88">
-        <v>-0.006951577313514392</v>
+        <v>-0.06865275893625312</v>
       </c>
       <c r="D88">
-        <v>-0.04295168005255238</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02228909529853085</v>
+      </c>
+      <c r="E88">
+        <v>0.004098874369482145</v>
+      </c>
+      <c r="F88">
+        <v>0.02154901460050712</v>
+      </c>
+      <c r="G88">
+        <v>0.103103234373916</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3303671061047149</v>
+        <v>0.2333374092959218</v>
       </c>
       <c r="C89">
-        <v>-0.2187300589411239</v>
+        <v>0.3672419989859966</v>
       </c>
       <c r="D89">
-        <v>0.2027843204278599</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0003628255604706852</v>
+      </c>
+      <c r="E89">
+        <v>0.01932553854535735</v>
+      </c>
+      <c r="F89">
+        <v>0.02672194051742234</v>
+      </c>
+      <c r="G89">
+        <v>0.06973343149144469</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2711530722564569</v>
+        <v>0.2081278379604268</v>
       </c>
       <c r="C90">
-        <v>-0.1836490004851239</v>
+        <v>0.3164149912810923</v>
       </c>
       <c r="D90">
-        <v>0.1816943678086199</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004754590450145297</v>
+      </c>
+      <c r="E90">
+        <v>0.000106229008687182</v>
+      </c>
+      <c r="F90">
+        <v>0.04605936425514053</v>
+      </c>
+      <c r="G90">
+        <v>0.04337836399717294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.09184043477246751</v>
+        <v>0.1842359176544784</v>
       </c>
       <c r="C91">
-        <v>-0.07835181371358813</v>
+        <v>-0.1417856866715776</v>
       </c>
       <c r="D91">
-        <v>-0.2251028468744752</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02179736223132831</v>
+      </c>
+      <c r="E91">
+        <v>0.06589671097468337</v>
+      </c>
+      <c r="F91">
+        <v>0.1382637815306942</v>
+      </c>
+      <c r="G91">
+        <v>0.03569913736970313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2275467028093585</v>
+        <v>0.1998989909965262</v>
       </c>
       <c r="C92">
-        <v>-0.1899852521002108</v>
+        <v>0.2567466169336014</v>
       </c>
       <c r="D92">
-        <v>0.09322608944856449</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03811337788751187</v>
+      </c>
+      <c r="E92">
+        <v>-0.03734864961599041</v>
+      </c>
+      <c r="F92">
+        <v>0.05975224078686268</v>
+      </c>
+      <c r="G92">
+        <v>0.1132474905570365</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2899516139340062</v>
+        <v>0.2324057805825182</v>
       </c>
       <c r="C93">
-        <v>-0.202617885009514</v>
+        <v>0.3129076317576504</v>
       </c>
       <c r="D93">
-        <v>0.151759541211758</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01158490178566825</v>
+      </c>
+      <c r="E93">
+        <v>-0.001949682097712966</v>
+      </c>
+      <c r="F93">
+        <v>0.04362486697763421</v>
+      </c>
+      <c r="G93">
+        <v>0.05776467177832684</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1438791621542</v>
+        <v>0.3201240065089648</v>
       </c>
       <c r="C94">
-        <v>-0.09076031584535781</v>
+        <v>-0.1817098267728073</v>
       </c>
       <c r="D94">
-        <v>-0.2861475224846097</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.01928863194928229</v>
+      </c>
+      <c r="E94">
+        <v>0.2294288294179563</v>
+      </c>
+      <c r="F94">
+        <v>0.4775600362428088</v>
+      </c>
+      <c r="G94">
+        <v>-0.4090920621331557</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.001338994833949456</v>
+        <v>0.1004953556148572</v>
       </c>
       <c r="C95">
-        <v>-0.008826139707455608</v>
+        <v>-0.08786783358829954</v>
       </c>
       <c r="D95">
-        <v>-0.1204351748128393</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.00983068753636163</v>
+      </c>
+      <c r="E95">
+        <v>-0.088475462831114</v>
+      </c>
+      <c r="F95">
+        <v>-0.1802552737612906</v>
+      </c>
+      <c r="G95">
+        <v>0.002865361432823471</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1311540150879831</v>
+        <v>0.1950502690394631</v>
       </c>
       <c r="C98">
-        <v>-0.1072425644904095</v>
+        <v>-0.04532029517491196</v>
       </c>
       <c r="D98">
-        <v>-0.1324357456817903</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01330522596871866</v>
+      </c>
+      <c r="E98">
+        <v>-0.07681837949464743</v>
+      </c>
+      <c r="F98">
+        <v>-0.2359102950703279</v>
+      </c>
+      <c r="G98">
+        <v>-0.02710933279800509</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.00889390810562248</v>
+        <v>0.008279069032483863</v>
       </c>
       <c r="C101">
-        <v>0.001416195643714734</v>
+        <v>-0.02233451610911813</v>
       </c>
       <c r="D101">
-        <v>-0.01698407057869711</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009234266039179057</v>
+      </c>
+      <c r="E101">
+        <v>-0.006453342848596642</v>
+      </c>
+      <c r="F101">
+        <v>0.01479028827999637</v>
+      </c>
+      <c r="G101">
+        <v>0.09770579484392208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.05373115643965087</v>
+        <v>0.1142115538543068</v>
       </c>
       <c r="C102">
-        <v>-0.02820610666288477</v>
+        <v>-0.08429427245456417</v>
       </c>
       <c r="D102">
-        <v>-0.1350105843635072</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.001113116771486679</v>
+      </c>
+      <c r="E102">
+        <v>0.03459022510495027</v>
+      </c>
+      <c r="F102">
+        <v>0.0393574033842754</v>
+      </c>
+      <c r="G102">
+        <v>0.01413749138702795</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.5642903556691151</v>
+        <v>0.02125203810535963</v>
       </c>
       <c r="C104">
-        <v>0.8144261376150995</v>
+        <v>0.03017675281958216</v>
       </c>
       <c r="D104">
-        <v>0.03065083802745005</v>
+        <v>0.987837838978189</v>
+      </c>
+      <c r="E104">
+        <v>0.05140700365925135</v>
+      </c>
+      <c r="F104">
+        <v>0.03378707745686893</v>
+      </c>
+      <c r="G104">
+        <v>-0.04010638727876707</v>
       </c>
     </row>
   </sheetData>
